--- a/soil_morph_elem.xlsx
+++ b/soil_morph_elem.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1084B983-2F8D-4A68-899C-132655977AB3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
     <sheet name="source" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="76">
   <si>
     <t>Наименование</t>
   </si>
@@ -249,9 +248,6 @@
   </si>
   <si>
     <t>Морфологическая характеристика обилия небольших пор/трещин (ширина трещин менее 3 мм, диаметр пор менее 1 мм)</t>
-  </si>
-  <si>
-    <t>MORPH_ELEM_SOIL_ID</t>
   </si>
   <si>
     <t>Name</t>
@@ -263,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -614,420 +610,309 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B490444-7045-4754-BBD3-99264396543C}">
-  <dimension ref="A1:C37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="35.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>74</v>
       </c>
       <c r="B1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="C31" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1037,7 +922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView topLeftCell="A20" workbookViewId="0">
